--- a/docs/StructureDefinition-VAReferral.xlsx
+++ b/docs/StructureDefinition-VAReferral.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="458">
   <si>
     <t>Path</t>
   </si>
@@ -334,6 +334,71 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>servicerequest-vaStatus</t>
+  </si>
+  <si>
+    <t>CPRS STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/servicerequest-vaStatus}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @CPRS STATUS 123-8b</t>
+  </si>
+  <si>
+    <t>referralrequest-significantFindings</t>
+  </si>
+  <si>
+    <t>SIGNIFICANT FINDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/referralrequest-significantFindings}
+</t>
+  </si>
+  <si>
+    <t>Significant Findings</t>
+  </si>
+  <si>
+    <t>If significant findings are noted in the consult results, then this field may be marked "Yes", and appropriate comments may be entered in the "Comment" field. "Unknown" is the default. "No" may also be specified to indicate the results do not include significant findings.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @SIGNIFICANT FINDING 123-15</t>
+  </si>
+  <si>
+    <t>lastAction</t>
+  </si>
+  <si>
+    <t>LAST ACTION TAKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/lastAction}
+</t>
+  </si>
+  <si>
+    <t>Last Action</t>
+  </si>
+  <si>
+    <t>This is the last Action Type taken that updated the activity tracking audit trail.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @LAST ACTION TAKEN 123-9</t>
+  </si>
+  <si>
     <t>servicerequest-encounterType</t>
   </si>
   <si>
@@ -350,72 +415,7 @@
     <t>This field allows the ordering person to indicate if the service is to be rendered on an outpatient or inpatient basis.  This is to alleviate the confusion if patient is currently an inpatient/outpatient but is just about to be discharged/admitted and become a outpatient/inpatient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>REQUEST/CONSULTATION @SERVICE RENDERED AS IN OR OUT 123-14</t>
-  </si>
-  <si>
-    <t>lastAction</t>
-  </si>
-  <si>
-    <t>LAST ACTION TAKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/lastAction}
-</t>
-  </si>
-  <si>
-    <t>Last Action</t>
-  </si>
-  <si>
-    <t>This is the last Action Type taken that updated the activity tracking audit trail.</t>
-  </si>
-  <si>
-    <t>REQUEST/CONSULTATION @LAST ACTION TAKEN 123-9</t>
-  </si>
-  <si>
-    <t>referralrequest-significantFindings</t>
-  </si>
-  <si>
-    <t>SIGNIFICANT FINDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/referralrequest-significantFindings}
-</t>
-  </si>
-  <si>
-    <t>Significant Findings</t>
-  </si>
-  <si>
-    <t>If significant findings are noted in the consult results, then this field may be marked "Yes", and appropriate comments may be entered in the "Comment" field. "Unknown" is the default. "No" may also be specified to indicate the results do not include significant findings.</t>
-  </si>
-  <si>
-    <t>REQUEST/CONSULTATION @SIGNIFICANT FINDING 123-15</t>
-  </si>
-  <si>
-    <t>servicerequest-vaStatus</t>
-  </si>
-  <si>
-    <t>CPRS STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/servicerequest-vaStatus}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>REQUEST/CONSULTATION @CPRS STATUS 123-8b</t>
   </si>
   <si>
     <t>ReferralRequest.modifierExtension</t>
@@ -879,6 +879,51 @@
   </si>
   <si>
     <t>PR1-3 / OBR-4</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.id</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.extension</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.id</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.extension</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.system</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.version</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.code</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Clinical procedure</t>
+  </si>
+  <si>
+    <t>This is the procedure that was requested via CPRS while ordering.</t>
+  </si>
+  <si>
+    <t>CP DEFINITION FILE @NAME 123-1.01:702.01-.01</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.display</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ReferralRequest.serviceRequested.text</t>
   </si>
   <si>
     <t>ReferralRequest.subject</t>
@@ -1115,16 +1160,22 @@
     <t>ReferralRequest.requester.agent.display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+    <t>SENDING PROVIDER</t>
+  </si>
+  <si>
+    <t>Requesting Provider</t>
+  </si>
+  <si>
+    <t>This is the provider who originated the order.</t>
   </si>
   <si>
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @SENDING PROVIDER  123-10</t>
   </si>
   <si>
     <t>ReferralRequest.requester.onBehalfOf</t>
@@ -1211,6 +1262,18 @@
     <t>ReferralRequest.recipient.display</t>
   </si>
   <si>
+    <t>ATTENTION</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Enter the name of a person you would like to alert about the consult. This person will be sent a notification that a new consult exists. In order for the person to see this type of notification, the person must be set up to receive "New service consult" notifications.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @ATTENTION 123-7</t>
+  </si>
+  <si>
     <t>ReferralRequest.reasonCode</t>
   </si>
   <si>
@@ -1227,6 +1290,88 @@
   </si>
   <si>
     <t>why</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.id</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.extension</t>
+  </si>
+  <si>
+    <t>diagnosisDate</t>
+  </si>
+  <si>
+    <t>PROVISIONAL DIAGNOSIS DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/diagnosisDate}
+</t>
+  </si>
+  <si>
+    <t>Provisional Diagnosis</t>
+  </si>
+  <si>
+    <t>This is the date of the provisional diagnosis and will contain a value if the request is filed with a coded diagnosis.  This field is used internally to help identify if a given code is active.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @PROVISIONAL DIAGNOSIS DATE 123-30.2</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.id</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.extension</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.system</t>
+  </si>
+  <si>
+    <t>PROVISIONAL DIAGNOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>This is the 3-character Source Abbreviation (SAB) for the coding system  to which a given diagnosis code belongs.  This field will only contain a  value when a given service is configured to receive a coded diagnosis.   This field is used internally to check if a given code is active.  For example, ICD is stored if the coding system is ICD-9. 10D is stored if the coding system is ICD-10.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @PROVISIONAL DIAGNOSIS SYSTEM 123-30.3</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.version</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.code</t>
+  </si>
+  <si>
+    <t>PROVISIONAL DIAGNOSIS COD</t>
+  </si>
+  <si>
+    <t>This field is used to store the coded portion of the Provisional Diagnosis if a coded diagnosis is sent via CPRS.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @PROVISIONAL DIAGNOSIS COD 123-30.1</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.display</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ReferralRequest.reasonCode.text</t>
+  </si>
+  <si>
+    <t>REASON FOR REQUEST</t>
+  </si>
+  <si>
+    <t>Reason for Request</t>
+  </si>
+  <si>
+    <t>This is the Provisional Diagnosis the ordering clinician would specify on the Consult Form 513.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @REASON FOR REQUEST 123.01-20</t>
   </si>
   <si>
     <t>ReferralRequest.reasonReference</t>
@@ -1449,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,7 +1603,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.09765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="32.953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1493,7 +1638,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="66.1953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="67.2265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.35546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="80.75390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="76.6953125" customWidth="true" bestFit="true"/>
@@ -3621,7 +3766,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>50</v>
@@ -5406,7 +5551,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -5418,20 +5563,18 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5480,10 +5623,10 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>50</v>
@@ -5498,51 +5641,51 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -5579,25 +5722,25 @@
         <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -5606,32 +5749,32 @@
         <v>43</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5643,19 +5786,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5692,23 +5835,25 @@
         <v>43</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
@@ -5720,28 +5865,24 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5749,29 +5890,25 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
@@ -5819,7 +5956,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5834,54 +5971,54 @@
         <v>43</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -5918,25 +6055,25 @@
         <v>43</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>43</v>
@@ -5945,25 +6082,25 @@
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5982,16 +6119,20 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
@@ -6039,7 +6180,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6051,7 +6192,7 @@
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
@@ -6060,15 +6201,15 @@
         <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6088,18 +6229,20 @@
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>43</v>
@@ -6148,7 +6291,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6169,49 +6312,51 @@
         <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="E43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6259,13 +6404,13 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>43</v>
@@ -6274,55 +6419,55 @@
         <v>43</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>326</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6370,13 +6515,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6391,15 +6536,15 @@
         <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>93</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6407,7 +6552,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>50</v>
@@ -6422,16 +6567,20 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6479,10 +6628,10 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>50</v>
@@ -6497,18 +6646,18 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>334</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6528,19 +6677,23 @@
         <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
       </c>
@@ -6588,7 +6741,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6609,26 +6762,26 @@
         <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>194</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>43</v>
@@ -6637,19 +6790,19 @@
         <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6687,25 +6840,25 @@
         <v>43</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
@@ -6717,24 +6870,26 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>194</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6742,7 +6897,7 @@
         <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -6751,17 +6906,15 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6810,7 +6963,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6819,31 +6972,31 @@
         <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6862,18 +7015,20 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
@@ -6909,19 +7064,17 @@
         <v>43</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6939,24 +7092,28 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="C50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
@@ -6964,7 +7121,7 @@
         <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>43</v>
@@ -6973,18 +7130,20 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7032,7 +7191,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7047,28 +7206,28 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s" s="2">
         <v>41</v>
@@ -7086,18 +7245,16 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7145,7 +7302,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7154,31 +7311,31 @@
         <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7194,16 +7351,16 @@
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7230,13 +7387,13 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
@@ -7254,7 +7411,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7266,7 +7423,7 @@
         <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>43</v>
@@ -7275,15 +7432,15 @@
         <v>43</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7294,7 +7451,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>43</v>
@@ -7303,20 +7460,18 @@
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7365,13 +7520,13 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7383,29 +7538,29 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -7417,15 +7572,17 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7474,13 +7631,13 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
@@ -7503,11 +7660,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7520,19 +7677,19 @@
         <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>131</v>
@@ -7573,19 +7730,19 @@
         <v>43</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7609,12 +7766,12 @@
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7622,7 +7779,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>50</v>
@@ -7637,17 +7794,15 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7696,16 +7851,16 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>43</v>
@@ -7714,18 +7869,18 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7745,20 +7900,18 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -7807,7 +7960,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7831,23 +7984,23 @@
         <v>43</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>348</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -7856,19 +8009,19 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>197</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7906,25 +8059,25 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -7942,12 +8095,12 @@
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7958,7 +8111,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -7970,15 +8123,17 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8003,13 +8158,13 @@
         <v>43</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8027,16 +8182,16 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>43</v>
@@ -8045,18 +8200,18 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8067,7 +8222,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8079,15 +8234,17 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8136,13 +8293,13 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>43</v>
@@ -8154,24 +8311,26 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8179,24 +8338,26 @@
         <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8245,7 +8406,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8260,7 +8421,7 @@
         <v>43</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>43</v>
@@ -8269,44 +8430,48 @@
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8354,22 +8519,22 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>43</v>
+        <v>378</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>43</v>
@@ -8378,12 +8543,12 @@
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>43</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8394,7 +8559,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
@@ -8406,13 +8571,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>400</v>
+        <v>182</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8439,13 +8604,13 @@
         <v>43</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -8463,13 +8628,13 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
@@ -8484,7 +8649,7 @@
         <v>43</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8492,11 +8657,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>404</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8512,19 +8677,19 @@
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8574,7 +8739,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8592,17 +8757,2572 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>43</v>
+        <v>391</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>409</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM64">
+  <autoFilter ref="A1:AM87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8612,7 +11332,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
